--- a/experiment_data/cot_data/cot_data_new_prompt.xlsx
+++ b/experiment_data/cot_data/cot_data_new_prompt.xlsx
@@ -1,20 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frmar\OneDrive\Desktop\GitHub\Codenames-LLM\experiment_data\cot_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A7C0D-1062-4C13-8926-544DF342E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Red" sheetId="2" r:id="rId2"/>
+    <sheet name="Blue" sheetId="3" r:id="rId3"/>
+    <sheet name="History" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="37">
+  <si>
+    <t>cot</t>
+  </si>
+  <si>
+    <t>games_played</t>
+  </si>
+  <si>
+    <t>wins</t>
+  </si>
+  <si>
+    <t>win_percentage</t>
+  </si>
+  <si>
+    <t>win_by_cards_finished</t>
+  </si>
+  <si>
+    <t>wins_by_killer_words</t>
+  </si>
+  <si>
+    <t>losses_by_card_finished</t>
+  </si>
+  <si>
+    <t>losses_by_killer_words</t>
+  </si>
+  <si>
+    <t>average_word_to_guess</t>
+  </si>
+  <si>
+    <t>average_word_to_guess_when_wins</t>
+  </si>
+  <si>
+    <t>average_word_to_guess_when_lose</t>
+  </si>
+  <si>
+    <t>average_word_guessed</t>
+  </si>
+  <si>
+    <t>average_word_guessed_when_wins</t>
+  </si>
+  <si>
+    <t>average_word_guessed_when_lose</t>
+  </si>
+  <si>
+    <t>average_turns</t>
+  </si>
+  <si>
+    <t>average_turns_when_wins</t>
+  </si>
+  <si>
+    <t>average_turns_when_lose</t>
+  </si>
+  <si>
+    <t>total_cib</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
   <si>
     <t>red_cot</t>
   </si>
@@ -55,10 +127,10 @@
     <t>BLUE</t>
   </si>
   <si>
-    <t>RED</t>
+    <t>killer word selected</t>
   </si>
   <si>
-    <t>killer word selected</t>
+    <t>RED</t>
   </si>
   <si>
     <t>cards finished</t>
@@ -67,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,17 +199,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +255,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +324,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,52 +500,637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>1.9746785714285719</v>
+      </c>
+      <c r="J2">
+        <v>1.759615384615385</v>
+      </c>
+      <c r="K2">
+        <v>2.1121779859484779</v>
+      </c>
+      <c r="L2">
+        <v>0.66253571428571423</v>
+      </c>
+      <c r="M2">
+        <v>0.68739316239316239</v>
+      </c>
+      <c r="N2">
+        <v>0.64664324746291957</v>
+      </c>
+      <c r="O2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="P2">
+        <v>3.7179487179487181</v>
+      </c>
+      <c r="Q2">
+        <v>4.4098360655737707</v>
+      </c>
+      <c r="R2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>2.0852380952380951</v>
+      </c>
+      <c r="J3">
+        <v>1.973516783762685</v>
+      </c>
+      <c r="K3">
+        <v>2.2599816849816849</v>
+      </c>
+      <c r="L3">
+        <v>0.77798809523809509</v>
+      </c>
+      <c r="M3">
+        <v>0.79195940671350495</v>
+      </c>
+      <c r="N3">
+        <v>0.75613553113553122</v>
+      </c>
+      <c r="O3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="P3">
+        <v>4.4262295081967213</v>
+      </c>
+      <c r="Q3">
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="R3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>2.1465952380952378</v>
+      </c>
+      <c r="J2">
+        <v>2.0810185185185182</v>
+      </c>
+      <c r="K2">
+        <v>2.1834821428571431</v>
+      </c>
+      <c r="L2">
+        <v>0.67092857142857143</v>
+      </c>
+      <c r="M2">
+        <v>0.72175925925925921</v>
+      </c>
+      <c r="N2">
+        <v>0.64233630952380949</v>
+      </c>
+      <c r="O2">
+        <v>4.26</v>
+      </c>
+      <c r="P2">
+        <v>4.2777777777777777</v>
+      </c>
+      <c r="Q2">
+        <v>4.25</v>
+      </c>
+      <c r="R2">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>2.1465000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2.068103448275862</v>
+      </c>
+      <c r="K3">
+        <v>2.2547619047619039</v>
+      </c>
+      <c r="L3">
+        <v>0.78842857142857137</v>
+      </c>
+      <c r="M3">
+        <v>0.81223316912972099</v>
+      </c>
+      <c r="N3">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="O3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="P3">
+        <v>5.1379310344827589</v>
+      </c>
+      <c r="Q3">
+        <v>3.952380952380953</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>1.802761904761905</v>
+      </c>
+      <c r="J2">
+        <v>1.484126984126984</v>
+      </c>
+      <c r="K2">
+        <v>2.0334975369458128</v>
+      </c>
+      <c r="L2">
+        <v>0.65414285714285714</v>
+      </c>
+      <c r="M2">
+        <v>0.65793650793650782</v>
+      </c>
+      <c r="N2">
+        <v>0.65139573070607559</v>
+      </c>
+      <c r="O2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="P2">
+        <v>3.2380952380952381</v>
+      </c>
+      <c r="Q2">
+        <v>4.5862068965517242</v>
+      </c>
+      <c r="R2">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>2.0239761904761902</v>
+      </c>
+      <c r="J3">
+        <v>1.8877976190476189</v>
+      </c>
+      <c r="K3">
+        <v>2.2660714285714292</v>
+      </c>
+      <c r="L3">
+        <v>0.76754761904761892</v>
+      </c>
+      <c r="M3">
+        <v>0.77358630952380947</v>
+      </c>
+      <c r="N3">
+        <v>0.75681216931216921</v>
+      </c>
+      <c r="O3">
+        <v>3.82</v>
+      </c>
+      <c r="P3">
+        <v>3.78125</v>
+      </c>
+      <c r="Q3">
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835C27F-8AA4-41BF-8C9F-2C7D6F2765F7}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -471,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -486,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -501,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -509,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -518,13 +1185,13 @@
         <v>1.8</v>
       </c>
       <c r="F3">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G3">
         <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -539,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -547,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>2.25</v>
@@ -562,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -577,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -585,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>2.4</v>
@@ -600,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -615,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -623,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -638,7 +1305,7 @@
         <v>0.75</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -653,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -661,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>2.333333333333333</v>
@@ -670,13 +1337,13 @@
         <v>2.6</v>
       </c>
       <c r="F7">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7">
         <v>0.6</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -691,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -699,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -714,7 +1381,7 @@
         <v>0.8</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -729,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -737,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>2.125</v>
@@ -752,7 +1419,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -767,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -775,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1.5</v>
@@ -784,13 +1451,13 @@
         <v>1.8</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G10">
         <v>0.8</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -805,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -813,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>1.75</v>
@@ -828,7 +1495,7 @@
         <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -843,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -851,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>2.5</v>
@@ -866,7 +1533,7 @@
         <v>0.75</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -881,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -889,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -904,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -919,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -927,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1.666666666666667</v>
@@ -942,7 +1609,7 @@
         <v>0.8</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -957,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -965,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -980,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -995,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -1003,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>1.833333333333333</v>
@@ -1012,13 +1679,13 @@
         <v>2.8</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G16">
         <v>0.8</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -1033,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -1041,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E17">
         <v>1.4</v>
@@ -1056,7 +1723,7 @@
         <v>0.8</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -1071,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -1079,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1094,7 +1761,7 @@
         <v>0.8</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1109,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -1117,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>2.5</v>
@@ -1126,13 +1793,13 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G19">
         <v>0.4</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1147,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -1155,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1.6</v>
@@ -1170,7 +1837,7 @@
         <v>0.8</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -1185,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -1193,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>1.75</v>
@@ -1205,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1223,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -1231,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>1.714285714285714</v>
@@ -1243,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>7</v>
@@ -1261,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="b">
         <v>1</v>
       </c>
@@ -1269,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>1.75</v>
@@ -1284,7 +1951,7 @@
         <v>0.5</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -1299,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -1307,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>1.833333333333333</v>
@@ -1322,7 +1989,7 @@
         <v>0.8</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -1337,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="b">
         <v>1</v>
       </c>
@@ -1345,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E25">
         <v>1.5</v>
@@ -1360,7 +2027,7 @@
         <v>0.75</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -1375,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="b">
         <v>1</v>
       </c>
@@ -1383,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>2.25</v>
@@ -1398,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -1413,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="b">
         <v>1</v>
       </c>
@@ -1421,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1433,10 +2100,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G27">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -1451,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -1459,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>1.666666666666667</v>
@@ -1468,13 +2135,13 @@
         <v>2.5</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G28">
         <v>0.5</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1489,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="b">
         <v>1</v>
       </c>
@@ -1497,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>2.166666666666667</v>
@@ -1506,13 +2173,13 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G29">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -1527,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="b">
         <v>1</v>
       </c>
@@ -1535,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E30">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F30">
         <v>0.8</v>
@@ -1550,7 +2217,7 @@
         <v>0.4</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -1565,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="b">
         <v>1</v>
       </c>
@@ -1573,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1588,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1603,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="b">
         <v>1</v>
       </c>
@@ -1611,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>2.333333333333333</v>
@@ -1620,13 +2287,13 @@
         <v>1.4</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G32">
         <v>0.6</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -1641,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="b">
         <v>1</v>
       </c>
@@ -1649,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E33">
         <v>2.5</v>
@@ -1664,7 +2331,7 @@
         <v>0.5</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -1679,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="b">
         <v>1</v>
       </c>
@@ -1687,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>2.333333333333333</v>
@@ -1702,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>6</v>
@@ -1717,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="b">
         <v>1</v>
       </c>
@@ -1725,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>2.5</v>
@@ -1740,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -1755,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="b">
         <v>1</v>
       </c>
@@ -1763,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>1.666666666666667</v>
@@ -1775,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -1793,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="b">
         <v>1</v>
       </c>
@@ -1801,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>2.6</v>
@@ -1816,7 +2483,7 @@
         <v>0.6</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -1831,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="b">
         <v>1</v>
       </c>
@@ -1839,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1854,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -1869,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="b">
         <v>1</v>
       </c>
@@ -1877,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>2.6</v>
@@ -1892,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>5</v>
@@ -1907,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="b">
         <v>1</v>
       </c>
@@ -1915,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>1.571428571428571</v>
@@ -1927,10 +2594,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G40">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>7</v>
@@ -1945,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="b">
         <v>1</v>
       </c>
@@ -1953,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1968,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -1983,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="b">
         <v>1</v>
       </c>
@@ -1991,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D42">
         <v>2.75</v>
@@ -2006,7 +2673,7 @@
         <v>0.25</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -2021,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="b">
         <v>1</v>
       </c>
@@ -2029,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>1.833333333333333</v>
@@ -2038,13 +2705,13 @@
         <v>1.5</v>
       </c>
       <c r="F43">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G43">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I43">
         <v>6</v>
@@ -2059,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="b">
         <v>1</v>
       </c>
@@ -2067,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>2.333333333333333</v>
@@ -2079,10 +2746,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -2097,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="b">
         <v>1</v>
       </c>
@@ -2105,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2120,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2135,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="b">
         <v>1</v>
       </c>
@@ -2143,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>2.6</v>
@@ -2158,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>5</v>
@@ -2173,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="b">
         <v>1</v>
       </c>
@@ -2181,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>1.8</v>
@@ -2196,7 +2863,7 @@
         <v>0.75</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -2211,7 +2878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="b">
         <v>1</v>
       </c>
@@ -2219,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>1.714285714285714</v>
@@ -2234,7 +2901,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I48">
         <v>7</v>
@@ -2249,7 +2916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -2257,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>1.8</v>
@@ -2272,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -2287,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="b">
         <v>1</v>
       </c>
@@ -2295,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>2.666666666666667</v>
@@ -2310,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -2325,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="b">
         <v>1</v>
       </c>
@@ -2333,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>2.333333333333333</v>
@@ -2345,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2363,7 +3030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="b">
         <v>0</v>
       </c>
@@ -2371,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>2.333333333333333</v>
@@ -2386,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -2401,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="b">
         <v>0</v>
       </c>
@@ -2409,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>2.5</v>
@@ -2424,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -2439,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="b">
         <v>0</v>
       </c>
@@ -2447,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2462,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -2477,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="b">
         <v>0</v>
       </c>
@@ -2485,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D55">
         <v>1.333333333333333</v>
@@ -2500,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I55">
         <v>6</v>
@@ -2515,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="b">
         <v>0</v>
       </c>
@@ -2523,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>1.5</v>
@@ -2532,13 +3199,13 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G56">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I56">
         <v>6</v>
@@ -2553,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="b">
         <v>0</v>
       </c>
@@ -2561,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D57">
         <v>2.666666666666667</v>
@@ -2570,13 +3237,13 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G57">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I57">
         <v>6</v>
@@ -2591,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="b">
         <v>0</v>
       </c>
@@ -2599,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>2.333333333333333</v>
@@ -2608,13 +3275,13 @@
         <v>2</v>
       </c>
       <c r="F58">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -2629,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="b">
         <v>0</v>
       </c>
@@ -2637,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>2.25</v>
@@ -2652,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I59">
         <v>4</v>
@@ -2667,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="b">
         <v>0</v>
       </c>
@@ -2675,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2687,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I60">
         <v>4</v>
@@ -2705,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="b">
         <v>0</v>
       </c>
@@ -2713,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D61">
         <v>1.5</v>
@@ -2722,13 +3389,13 @@
         <v>2.6</v>
       </c>
       <c r="F61">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -2743,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="b">
         <v>0</v>
       </c>
@@ -2751,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>2.5</v>
@@ -2763,10 +3430,10 @@
         <v>0.5</v>
       </c>
       <c r="G62">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -2781,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="b">
         <v>0</v>
       </c>
@@ -2789,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2804,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -2819,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="b">
         <v>0</v>
       </c>
@@ -2827,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D64">
         <v>2.5</v>
@@ -2842,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -2857,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="b">
         <v>0</v>
       </c>
@@ -2865,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D65">
         <v>1.75</v>
@@ -2880,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -2895,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="b">
         <v>0</v>
       </c>
@@ -2903,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -2912,13 +3579,13 @@
         <v>2.5</v>
       </c>
       <c r="F66">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G66">
         <v>0.5</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -2933,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="b">
         <v>0</v>
       </c>
@@ -2941,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2956,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2971,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="b">
         <v>0</v>
       </c>
@@ -2979,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D68">
         <v>1.833333333333333</v>
@@ -2994,7 +3661,7 @@
         <v>0.8</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I68">
         <v>6</v>
@@ -3009,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="b">
         <v>0</v>
       </c>
@@ -3017,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D69">
         <v>3.5</v>
@@ -3032,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -3047,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="b">
         <v>0</v>
       </c>
@@ -3055,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3070,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -3085,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="b">
         <v>0</v>
       </c>
@@ -3093,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D71">
         <v>1.8</v>
@@ -3108,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I71">
         <v>5</v>
@@ -3123,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="b">
         <v>0</v>
       </c>
@@ -3131,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D72">
         <v>2.8</v>
@@ -3146,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I72">
         <v>5</v>
@@ -3161,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="b">
         <v>0</v>
       </c>
@@ -3169,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D73">
         <v>2.666666666666667</v>
@@ -3178,13 +3845,13 @@
         <v>2.5</v>
       </c>
       <c r="F73">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -3199,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="b">
         <v>0</v>
       </c>
@@ -3207,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3216,13 +3883,13 @@
         <v>2.333333333333333</v>
       </c>
       <c r="F74">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G74">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -3237,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="b">
         <v>0</v>
       </c>
@@ -3245,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D75">
         <v>1.166666666666667</v>
@@ -3254,13 +3921,13 @@
         <v>1.833333333333333</v>
       </c>
       <c r="F75">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I75">
         <v>6</v>
@@ -3275,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="b">
         <v>0</v>
       </c>
@@ -3283,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D76">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E76">
         <v>2.4</v>
@@ -3298,7 +3965,7 @@
         <v>0.6</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I76">
         <v>5</v>
@@ -3313,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="b">
         <v>0</v>
       </c>
@@ -3321,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D77">
         <v>1.8</v>
@@ -3336,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I77">
         <v>5</v>
@@ -3351,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="b">
         <v>0</v>
       </c>
@@ -3359,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -3374,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3389,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="b">
         <v>0</v>
       </c>
@@ -3397,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D79">
         <v>1.8</v>
@@ -3412,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I79">
         <v>5</v>
@@ -3427,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="b">
         <v>0</v>
       </c>
@@ -3435,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -3444,13 +4111,13 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -3465,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="b">
         <v>0</v>
       </c>
@@ -3473,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -3482,13 +4149,13 @@
         <v>3</v>
       </c>
       <c r="F81">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G81">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -3503,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="b">
         <v>0</v>
       </c>
@@ -3511,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D82">
         <v>1.833333333333333</v>
@@ -3520,13 +4187,13 @@
         <v>1.833333333333333</v>
       </c>
       <c r="F82">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G82">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I82">
         <v>6</v>
@@ -3541,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="b">
         <v>0</v>
       </c>
@@ -3549,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D83">
         <v>2.666666666666667</v>
@@ -3558,13 +4225,13 @@
         <v>2.666666666666667</v>
       </c>
       <c r="F83">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G83">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -3579,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="b">
         <v>0</v>
       </c>
@@ -3587,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D84">
         <v>1.8</v>
@@ -3602,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I84">
         <v>5</v>
@@ -3617,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="b">
         <v>0</v>
       </c>
@@ -3625,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D85">
         <v>2.75</v>
@@ -3640,7 +4307,7 @@
         <v>0.625</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I85">
         <v>8</v>
@@ -3655,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="b">
         <v>0</v>
       </c>
@@ -3663,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D86">
         <v>1.875</v>
@@ -3678,7 +4345,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I86">
         <v>8</v>
@@ -3693,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="b">
         <v>0</v>
       </c>
@@ -3701,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3716,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3731,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="b">
         <v>0</v>
       </c>
@@ -3739,13 +4406,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D88">
         <v>1.571428571428571</v>
       </c>
       <c r="E88">
-        <v>2.142857142857143</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="F88">
         <v>0.5714285714285714</v>
@@ -3754,7 +4421,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I88">
         <v>7</v>
@@ -3769,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="b">
         <v>0</v>
       </c>
@@ -3777,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D89">
         <v>1.333333333333333</v>
@@ -3786,13 +4453,13 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G89">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I89">
         <v>6</v>
@@ -3807,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="b">
         <v>0</v>
       </c>
@@ -3815,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D90">
         <v>2.75</v>
@@ -3830,7 +4497,7 @@
         <v>0.5</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -3845,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="b">
         <v>0</v>
       </c>
@@ -3853,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -3868,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3883,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="b">
         <v>0</v>
       </c>
@@ -3891,13 +4558,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D92">
         <v>2.4</v>
       </c>
       <c r="E92">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F92">
         <v>0.6</v>
@@ -3906,7 +4573,7 @@
         <v>0.6</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -3921,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="b">
         <v>0</v>
       </c>
@@ -3929,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D93">
         <v>1.25</v>
@@ -3941,10 +4608,10 @@
         <v>0.5</v>
       </c>
       <c r="G93">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -3959,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="b">
         <v>0</v>
       </c>
@@ -3967,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>1.666666666666667</v>
@@ -3979,10 +4646,10 @@
         <v>0.5</v>
       </c>
       <c r="G94">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I94">
         <v>6</v>
@@ -3997,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="b">
         <v>0</v>
       </c>
@@ -4005,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E95">
         <v>2.25</v>
@@ -4020,7 +4687,7 @@
         <v>0.75</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I95">
         <v>5</v>
@@ -4035,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="b">
         <v>0</v>
       </c>
@@ -4043,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D96">
         <v>2.5</v>
@@ -4058,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -4073,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="b">
         <v>0</v>
       </c>
@@ -4081,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D97">
         <v>1.5</v>
@@ -4090,13 +4757,13 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F97">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G97">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I97">
         <v>6</v>
@@ -4111,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="b">
         <v>0</v>
       </c>
@@ -4119,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4134,7 +4801,7 @@
         <v>0.75</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -4149,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="b">
         <v>0</v>
       </c>
@@ -4157,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D99">
         <v>2.166666666666667</v>
@@ -4166,13 +4833,13 @@
         <v>2.4</v>
       </c>
       <c r="F99">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G99">
         <v>0.8</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I99">
         <v>6</v>
@@ -4187,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="b">
         <v>0</v>
       </c>
@@ -4195,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D100">
         <v>1.666666666666667</v>
@@ -4210,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I100">
         <v>6</v>
@@ -4225,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="b">
         <v>0</v>
       </c>
@@ -4233,22 +4900,22 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D101">
         <v>2.666666666666667</v>
       </c>
       <c r="E101">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F101">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I101">
         <v>6</v>
